--- a/results/mp/logistic/corona/confidence/168/0.35/avg_0.003_scores.xlsx
+++ b/results/mp/logistic/corona/confidence/168/0.35/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="61">
   <si>
     <t>anchor score</t>
   </si>
@@ -52,18 +52,9 @@
     <t>die</t>
   </si>
   <si>
-    <t>war</t>
-  </si>
-  <si>
-    <t>fraud</t>
-  </si>
-  <si>
     <t>sc</t>
   </si>
   <si>
-    <t>fears</t>
-  </si>
-  <si>
     <t>panic</t>
   </si>
   <si>
@@ -79,136 +70,133 @@
     <t>stop</t>
   </si>
   <si>
-    <t>of</t>
+    <t>co</t>
   </si>
   <si>
     <t>the</t>
   </si>
   <si>
+    <t>negative</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>love</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>won</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>special</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>gt</t>
+  </si>
+  <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>relief</t>
+  </si>
+  <si>
+    <t>save</t>
+  </si>
+  <si>
+    <t>like</t>
+  </si>
+  <si>
+    <t>join</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>please</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>share</t>
+  </si>
+  <si>
+    <t>care</t>
+  </si>
+  <si>
+    <t>increase</t>
+  </si>
+  <si>
+    <t>protect</t>
+  </si>
+  <si>
+    <t>you</t>
+  </si>
+  <si>
+    <t>and</t>
+  </si>
+  <si>
+    <t>for</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
     <t>to</t>
   </si>
   <si>
     <t>.</t>
-  </si>
-  <si>
-    <t>negative</t>
-  </si>
-  <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>love</t>
-  </si>
-  <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>special</t>
-  </si>
-  <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>won</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>friends</t>
-  </si>
-  <si>
-    <t>save</t>
-  </si>
-  <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>ready</t>
-  </si>
-  <si>
-    <t>gt</t>
-  </si>
-  <si>
-    <t>relief</t>
-  </si>
-  <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>share</t>
-  </si>
-  <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>alert</t>
-  </si>
-  <si>
-    <t>safety</t>
-  </si>
-  <si>
-    <t>increase</t>
-  </si>
-  <si>
-    <t>you</t>
-  </si>
-  <si>
-    <t>for</t>
-  </si>
-  <si>
-    <t>and</t>
-  </si>
-  <si>
-    <t>?</t>
   </si>
 </sst>
 </file>
@@ -566,7 +554,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q44"/>
+  <dimension ref="A1:Q43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -574,10 +562,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="J1" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -635,13 +623,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.7465753424657534</v>
+        <v>0.7671232876712328</v>
       </c>
       <c r="C3">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="D3">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -653,19 +641,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="K3">
-        <v>0.9152542372881356</v>
+        <v>0.9322033898305084</v>
       </c>
       <c r="L3">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M3">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -677,7 +665,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -685,13 +673,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.7241379310344828</v>
+        <v>0.6896551724137931</v>
       </c>
       <c r="C4">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D4">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -703,10 +691,10 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="K4">
         <v>0.9130434782608695</v>
@@ -735,13 +723,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.7058823529411765</v>
+        <v>0.6176470588235294</v>
       </c>
       <c r="C5">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D5">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -753,19 +741,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="K5">
-        <v>0.8846153846153846</v>
+        <v>0.9083333333333333</v>
       </c>
       <c r="L5">
-        <v>23</v>
+        <v>109</v>
       </c>
       <c r="M5">
-        <v>23</v>
+        <v>109</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -777,7 +765,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>3</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -785,38 +773,38 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.6216216216216216</v>
+        <v>0.5405405405405406</v>
       </c>
       <c r="C6">
+        <v>20</v>
+      </c>
+      <c r="D6">
+        <v>20</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6" t="b">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>17</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K6">
+        <v>0.8846153846153846</v>
+      </c>
+      <c r="L6">
         <v>23</v>
       </c>
-      <c r="D6">
+      <c r="M6">
         <v>23</v>
       </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6" t="b">
-        <v>0</v>
-      </c>
-      <c r="H6">
-        <v>14</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="K6">
-        <v>0.8833333333333333</v>
-      </c>
-      <c r="L6">
-        <v>106</v>
-      </c>
-      <c r="M6">
-        <v>106</v>
-      </c>
       <c r="N6">
         <v>1</v>
       </c>
@@ -827,7 +815,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>14</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -835,13 +823,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.6052631578947368</v>
+        <v>0.455026455026455</v>
       </c>
       <c r="C7">
-        <v>23</v>
+        <v>86</v>
       </c>
       <c r="D7">
-        <v>23</v>
+        <v>86</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -853,19 +841,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>15</v>
+        <v>103</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="K7">
-        <v>0.8660714285714286</v>
+        <v>0.875</v>
       </c>
       <c r="L7">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="M7">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -877,7 +865,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -885,13 +873,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.5833333333333334</v>
+        <v>0.3662790697674418</v>
       </c>
       <c r="C8">
-        <v>21</v>
+        <v>189</v>
       </c>
       <c r="D8">
-        <v>21</v>
+        <v>189</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -903,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>15</v>
+        <v>327</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="K8">
-        <v>0.8611111111111112</v>
+        <v>0.825065274151436</v>
       </c>
       <c r="L8">
-        <v>31</v>
+        <v>316</v>
       </c>
       <c r="M8">
-        <v>31</v>
+        <v>316</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -927,7 +915,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>5</v>
+        <v>67</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -935,13 +923,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.4497354497354497</v>
+        <v>0.2533333333333334</v>
       </c>
       <c r="C9">
-        <v>85</v>
+        <v>19</v>
       </c>
       <c r="D9">
-        <v>85</v>
+        <v>19</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -953,19 +941,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>104</v>
+        <v>56</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="K9">
-        <v>0.8297872340425532</v>
+        <v>0.8214285714285714</v>
       </c>
       <c r="L9">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="M9">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -977,7 +965,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -985,13 +973,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.392156862745098</v>
+        <v>0.1946308724832215</v>
       </c>
       <c r="C10">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="D10">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1003,19 +991,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>31</v>
+        <v>120</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="K10">
-        <v>0.8198433420365535</v>
+        <v>0.8103448275862069</v>
       </c>
       <c r="L10">
-        <v>314</v>
+        <v>47</v>
       </c>
       <c r="M10">
-        <v>314</v>
+        <v>47</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1027,7 +1015,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>69</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1035,13 +1023,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.3565891472868217</v>
+        <v>0.1638888888888889</v>
       </c>
       <c r="C11">
-        <v>184</v>
+        <v>59</v>
       </c>
       <c r="D11">
-        <v>184</v>
+        <v>59</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1053,19 +1041,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>332</v>
+        <v>301</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="K11">
-        <v>0.8048780487804879</v>
+        <v>0.7948717948717948</v>
       </c>
       <c r="L11">
-        <v>66</v>
+        <v>31</v>
       </c>
       <c r="M11">
-        <v>66</v>
+        <v>31</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1077,7 +1065,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1085,7 +1073,7 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.2666666666666667</v>
+        <v>0.07936507936507936</v>
       </c>
       <c r="C12">
         <v>20</v>
@@ -1103,19 +1091,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>55</v>
+        <v>232</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="K12">
-        <v>0.8028169014084507</v>
+        <v>0.7926829268292683</v>
       </c>
       <c r="L12">
-        <v>114</v>
+        <v>65</v>
       </c>
       <c r="M12">
-        <v>114</v>
+        <v>65</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1127,7 +1115,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>28</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1135,37 +1123,37 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.2080536912751678</v>
+        <v>0.00710135571336346</v>
       </c>
       <c r="C13">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="D13">
         <v>31</v>
       </c>
       <c r="E13">
-        <v>0</v>
+        <v>0.29</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0.71</v>
       </c>
       <c r="G13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H13">
-        <v>118</v>
+        <v>3076</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="K13">
-        <v>0.8018867924528302</v>
+        <v>0.7875</v>
       </c>
       <c r="L13">
-        <v>85</v>
+        <v>126</v>
       </c>
       <c r="M13">
-        <v>85</v>
+        <v>126</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1177,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>21</v>
+        <v>34</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1185,37 +1173,37 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.1277777777777778</v>
+        <v>0.005458089668615985</v>
       </c>
       <c r="C14">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="D14">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="E14">
-        <v>0</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.4399999999999999</v>
       </c>
       <c r="G14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H14">
-        <v>314</v>
+        <v>5102</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="K14">
-        <v>0.7931034482758621</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="L14">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="M14">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1227,45 +1215,21 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15" spans="1:17">
-      <c r="A15" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B15">
-        <v>0.1031746031746032</v>
-      </c>
-      <c r="C15">
-        <v>26</v>
-      </c>
-      <c r="D15">
-        <v>26</v>
-      </c>
-      <c r="E15">
-        <v>0</v>
-      </c>
-      <c r="F15">
-        <v>1</v>
-      </c>
-      <c r="G15" t="b">
-        <v>0</v>
-      </c>
-      <c r="H15">
-        <v>226</v>
-      </c>
       <c r="J15" s="1" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="K15">
-        <v>0.7890625</v>
+        <v>0.7735849056603774</v>
       </c>
       <c r="L15">
-        <v>101</v>
+        <v>82</v>
       </c>
       <c r="M15">
-        <v>101</v>
+        <v>82</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1277,145 +1241,73 @@
         <v>0</v>
       </c>
       <c r="Q15">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
+      <c r="J16" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K16">
+        <v>0.7659574468085106</v>
+      </c>
+      <c r="L16">
+        <v>36</v>
+      </c>
+      <c r="M16">
+        <v>36</v>
+      </c>
+      <c r="N16">
+        <v>1</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+      <c r="P16" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="10:17">
+      <c r="J17" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="K17">
+        <v>0.765625</v>
+      </c>
+      <c r="L17">
+        <v>98</v>
+      </c>
+      <c r="M17">
+        <v>98</v>
+      </c>
+      <c r="N17">
+        <v>1</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+      <c r="P17" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="10:17">
+      <c r="J18" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K18">
+        <v>0.75</v>
+      </c>
+      <c r="L18">
         <v>27</v>
       </c>
-    </row>
-    <row r="16" spans="1:17">
-      <c r="A16" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B16">
-        <v>0.0084530853761623</v>
-      </c>
-      <c r="C16">
-        <v>20</v>
-      </c>
-      <c r="D16">
-        <v>33</v>
-      </c>
-      <c r="E16">
-        <v>0.39</v>
-      </c>
-      <c r="F16">
-        <v>0.61</v>
-      </c>
-      <c r="G16" t="b">
-        <v>1</v>
-      </c>
-      <c r="H16">
-        <v>2346</v>
-      </c>
-      <c r="J16" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="K16">
-        <v>0.7777777777777778</v>
-      </c>
-      <c r="L16">
-        <v>28</v>
-      </c>
-      <c r="M16">
-        <v>28</v>
-      </c>
-      <c r="N16">
-        <v>1</v>
-      </c>
-      <c r="O16">
-        <v>0</v>
-      </c>
-      <c r="P16" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q16">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
-      <c r="A17" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B17">
-        <v>0.005056398288603656</v>
-      </c>
-      <c r="C17">
-        <v>26</v>
-      </c>
-      <c r="D17">
-        <v>49</v>
-      </c>
-      <c r="E17">
-        <v>0.47</v>
-      </c>
-      <c r="F17">
-        <v>0.53</v>
-      </c>
-      <c r="G17" t="b">
-        <v>1</v>
-      </c>
-      <c r="H17">
-        <v>5116</v>
-      </c>
-      <c r="J17" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="K17">
-        <v>0.775</v>
-      </c>
-      <c r="L17">
-        <v>124</v>
-      </c>
-      <c r="M17">
-        <v>124</v>
-      </c>
-      <c r="N17">
-        <v>1</v>
-      </c>
-      <c r="O17">
-        <v>0</v>
-      </c>
-      <c r="P17" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q17">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
-      <c r="A18" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B18">
-        <v>0.004885993485342019</v>
-      </c>
-      <c r="C18">
-        <v>21</v>
-      </c>
-      <c r="D18">
-        <v>51</v>
-      </c>
-      <c r="E18">
-        <v>0.59</v>
-      </c>
-      <c r="F18">
-        <v>0.41</v>
-      </c>
-      <c r="G18" t="b">
-        <v>1</v>
-      </c>
-      <c r="H18">
-        <v>4277</v>
-      </c>
-      <c r="J18" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="K18">
-        <v>0.7692307692307693</v>
-      </c>
-      <c r="L18">
-        <v>30</v>
-      </c>
       <c r="M18">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1430,267 +1322,243 @@
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="1:17">
-      <c r="A19" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B19">
-        <v>0.004233017536786938</v>
-      </c>
-      <c r="C19">
-        <v>21</v>
-      </c>
-      <c r="D19">
-        <v>56</v>
-      </c>
-      <c r="E19">
-        <v>0.62</v>
-      </c>
-      <c r="F19">
-        <v>0.38</v>
-      </c>
-      <c r="G19" t="b">
-        <v>1</v>
-      </c>
-      <c r="H19">
-        <v>4940</v>
-      </c>
+    <row r="19" spans="10:17">
       <c r="J19" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K19">
+        <v>0.7394366197183099</v>
+      </c>
+      <c r="L19">
+        <v>105</v>
+      </c>
+      <c r="M19">
+        <v>105</v>
+      </c>
+      <c r="N19">
+        <v>1</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+      <c r="P19" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="20" spans="10:17">
+      <c r="J20" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="K20">
+        <v>0.7291666666666666</v>
+      </c>
+      <c r="L20">
+        <v>35</v>
+      </c>
+      <c r="M20">
+        <v>35</v>
+      </c>
+      <c r="N20">
+        <v>1</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+      <c r="P20" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21" spans="10:17">
+      <c r="J21" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K21">
+        <v>0.7037037037037037</v>
+      </c>
+      <c r="L21">
+        <v>19</v>
+      </c>
+      <c r="M21">
+        <v>19</v>
+      </c>
+      <c r="N21">
+        <v>1</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+      <c r="P21" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="10:17">
+      <c r="J22" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="K22">
+        <v>0.6825396825396826</v>
+      </c>
+      <c r="L22">
+        <v>43</v>
+      </c>
+      <c r="M22">
+        <v>43</v>
+      </c>
+      <c r="N22">
+        <v>1</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+      <c r="P22" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="10:17">
+      <c r="J23" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="K23">
+        <v>0.675</v>
+      </c>
+      <c r="L23">
+        <v>27</v>
+      </c>
+      <c r="M23">
+        <v>27</v>
+      </c>
+      <c r="N23">
+        <v>1</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+      <c r="P23" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="24" spans="10:17">
+      <c r="J24" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="K19">
-        <v>0.75</v>
-      </c>
-      <c r="L19">
-        <v>36</v>
-      </c>
-      <c r="M19">
-        <v>36</v>
-      </c>
-      <c r="N19">
-        <v>1</v>
-      </c>
-      <c r="O19">
-        <v>0</v>
-      </c>
-      <c r="P19" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q19">
+      <c r="K24">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="L24">
+        <v>22</v>
+      </c>
+      <c r="M24">
+        <v>22</v>
+      </c>
+      <c r="N24">
+        <v>1</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+      <c r="P24" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="25" spans="10:17">
+      <c r="J25" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="K25">
+        <v>0.66</v>
+      </c>
+      <c r="L25">
+        <v>33</v>
+      </c>
+      <c r="M25">
+        <v>33</v>
+      </c>
+      <c r="N25">
+        <v>1</v>
+      </c>
+      <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="26" spans="10:17">
+      <c r="J26" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="K26">
+        <v>0.6571428571428571</v>
+      </c>
+      <c r="L26">
+        <v>23</v>
+      </c>
+      <c r="M26">
+        <v>23</v>
+      </c>
+      <c r="N26">
+        <v>1</v>
+      </c>
+      <c r="O26">
+        <v>0</v>
+      </c>
+      <c r="P26" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q26">
         <v>12</v>
       </c>
     </row>
-    <row r="20" spans="1:17">
-      <c r="J20" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="K20">
-        <v>0.75</v>
-      </c>
-      <c r="L20">
-        <v>21</v>
-      </c>
-      <c r="M20">
-        <v>21</v>
-      </c>
-      <c r="N20">
-        <v>1</v>
-      </c>
-      <c r="O20">
-        <v>0</v>
-      </c>
-      <c r="P20" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q20">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
-      <c r="J21" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="K21">
-        <v>0.7142857142857143</v>
-      </c>
-      <c r="L21">
-        <v>25</v>
-      </c>
-      <c r="M21">
-        <v>25</v>
-      </c>
-      <c r="N21">
-        <v>1</v>
-      </c>
-      <c r="O21">
-        <v>0</v>
-      </c>
-      <c r="P21" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q21">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
-      <c r="J22" s="1" t="s">
+    <row r="27" spans="10:17">
+      <c r="J27" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="K22">
-        <v>0.696969696969697</v>
-      </c>
-      <c r="L22">
-        <v>23</v>
-      </c>
-      <c r="M22">
-        <v>23</v>
-      </c>
-      <c r="N22">
-        <v>1</v>
-      </c>
-      <c r="O22">
-        <v>0</v>
-      </c>
-      <c r="P22" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q22">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
-      <c r="J23" s="1" t="s">
+      <c r="K27">
+        <v>0.6264705882352941</v>
+      </c>
+      <c r="L27">
+        <v>213</v>
+      </c>
+      <c r="M27">
+        <v>213</v>
+      </c>
+      <c r="N27">
+        <v>1</v>
+      </c>
+      <c r="O27">
+        <v>0</v>
+      </c>
+      <c r="P27" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q27">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="28" spans="10:17">
+      <c r="J28" s="1" t="s">
         <v>46</v>
-      </c>
-      <c r="K23">
-        <v>0.6825396825396826</v>
-      </c>
-      <c r="L23">
-        <v>43</v>
-      </c>
-      <c r="M23">
-        <v>43</v>
-      </c>
-      <c r="N23">
-        <v>1</v>
-      </c>
-      <c r="O23">
-        <v>0</v>
-      </c>
-      <c r="P23" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q23">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
-      <c r="J24" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="K24">
-        <v>0.6785714285714286</v>
-      </c>
-      <c r="L24">
-        <v>19</v>
-      </c>
-      <c r="M24">
-        <v>19</v>
-      </c>
-      <c r="N24">
-        <v>1</v>
-      </c>
-      <c r="O24">
-        <v>0</v>
-      </c>
-      <c r="P24" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q24">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
-      <c r="J25" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="K25">
-        <v>0.65</v>
-      </c>
-      <c r="L25">
-        <v>26</v>
-      </c>
-      <c r="M25">
-        <v>26</v>
-      </c>
-      <c r="N25">
-        <v>1</v>
-      </c>
-      <c r="O25">
-        <v>0</v>
-      </c>
-      <c r="P25" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q25">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17">
-      <c r="J26" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="K26">
-        <v>0.64</v>
-      </c>
-      <c r="L26">
-        <v>32</v>
-      </c>
-      <c r="M26">
-        <v>32</v>
-      </c>
-      <c r="N26">
-        <v>1</v>
-      </c>
-      <c r="O26">
-        <v>0</v>
-      </c>
-      <c r="P26" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q26">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17">
-      <c r="J27" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="K27">
-        <v>0.6294117647058823</v>
-      </c>
-      <c r="L27">
-        <v>214</v>
-      </c>
-      <c r="M27">
-        <v>214</v>
-      </c>
-      <c r="N27">
-        <v>1</v>
-      </c>
-      <c r="O27">
-        <v>0</v>
-      </c>
-      <c r="P27" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q27">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17">
-      <c r="J28" s="1" t="s">
-        <v>51</v>
       </c>
       <c r="K28">
         <v>0.6046511627906976</v>
@@ -1714,18 +1582,18 @@
         <v>17</v>
       </c>
     </row>
-    <row r="29" spans="1:17">
+    <row r="29" spans="10:17">
       <c r="J29" s="1" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="K29">
-        <v>0.6</v>
+        <v>0.5957446808510638</v>
       </c>
       <c r="L29">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="M29">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1737,21 +1605,21 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="30" spans="10:17">
       <c r="J30" s="1" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="K30">
-        <v>0.576271186440678</v>
+        <v>0.5857740585774058</v>
       </c>
       <c r="L30">
-        <v>170</v>
+        <v>140</v>
       </c>
       <c r="M30">
-        <v>170</v>
+        <v>140</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1763,21 +1631,21 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="31" spans="10:17">
       <c r="J31" s="1" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="K31">
-        <v>0.5690376569037657</v>
+        <v>0.5694915254237288</v>
       </c>
       <c r="L31">
-        <v>136</v>
+        <v>168</v>
       </c>
       <c r="M31">
-        <v>136</v>
+        <v>168</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1789,21 +1657,21 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="32" spans="10:17">
       <c r="J32" s="1" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="K32">
-        <v>0.5531914893617021</v>
+        <v>0.5692307692307692</v>
       </c>
       <c r="L32">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="M32">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1815,12 +1683,12 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>42</v>
+        <v>28</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="K33">
         <v>0.5285714285714286</v>
@@ -1846,16 +1714,16 @@
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="K34">
-        <v>0.4831460674157304</v>
+        <v>0.4382022471910113</v>
       </c>
       <c r="L34">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="M34">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -1867,21 +1735,21 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>46</v>
+        <v>50</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="K35">
-        <v>0.4523809523809524</v>
+        <v>0.3717948717948718</v>
       </c>
       <c r="L35">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="M35">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -1893,21 +1761,21 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>23</v>
+        <v>49</v>
       </c>
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="K36">
-        <v>0.3725490196078431</v>
+        <v>0.3424657534246575</v>
       </c>
       <c r="L36">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="M36">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -1919,151 +1787,151 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>32</v>
+        <v>48</v>
       </c>
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="K37">
-        <v>0.3717948717948718</v>
+        <v>0.02003338898163606</v>
       </c>
       <c r="L37">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="M37">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="N37">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="O37">
-        <v>0</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="P37" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q37">
-        <v>49</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="38" spans="10:17">
       <c r="J38" s="1" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="K38">
-        <v>0.03341687552213868</v>
+        <v>0.01276276276276276</v>
       </c>
       <c r="L38">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="M38">
         <v>43</v>
       </c>
       <c r="N38">
-        <v>0.93</v>
+        <v>0.79</v>
       </c>
       <c r="O38">
-        <v>0.06999999999999995</v>
+        <v>0.21</v>
       </c>
       <c r="P38" t="b">
         <v>1</v>
       </c>
       <c r="Q38">
-        <v>1157</v>
+        <v>2630</v>
       </c>
     </row>
     <row r="39" spans="10:17">
       <c r="J39" s="1" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="K39">
-        <v>0.01700251889168766</v>
+        <v>0.0119496855345912</v>
       </c>
       <c r="L39">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="M39">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="N39">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="O39">
-        <v>0.18</v>
+        <v>0.17</v>
       </c>
       <c r="P39" t="b">
         <v>1</v>
       </c>
       <c r="Q39">
-        <v>1561</v>
+        <v>1571</v>
       </c>
     </row>
     <row r="40" spans="10:17">
       <c r="J40" s="1" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="K40">
-        <v>0.01239203905369884</v>
+        <v>0.00794314381270903</v>
       </c>
       <c r="L40">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="M40">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="N40">
-        <v>0.77</v>
+        <v>0.9</v>
       </c>
       <c r="O40">
-        <v>0.23</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="P40" t="b">
         <v>1</v>
       </c>
       <c r="Q40">
-        <v>2630</v>
+        <v>2373</v>
       </c>
     </row>
     <row r="41" spans="10:17">
       <c r="J41" s="1" t="s">
-        <v>64</v>
+        <v>19</v>
       </c>
       <c r="K41">
-        <v>0.00794314381270903</v>
+        <v>0.006813315164492894</v>
       </c>
       <c r="L41">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="M41">
-        <v>21</v>
+        <v>63</v>
       </c>
       <c r="N41">
-        <v>0.9</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="O41">
-        <v>0.09999999999999998</v>
+        <v>0.4399999999999999</v>
       </c>
       <c r="P41" t="b">
         <v>1</v>
       </c>
       <c r="Q41">
-        <v>2373</v>
+        <v>5102</v>
       </c>
     </row>
     <row r="42" spans="10:17">
       <c r="J42" s="1" t="s">
-        <v>24</v>
+        <v>59</v>
       </c>
       <c r="K42">
-        <v>0.007035175879396985</v>
+        <v>0.006728538283062645</v>
       </c>
       <c r="L42">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="M42">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="N42">
         <v>0.62</v>
@@ -2075,59 +1943,33 @@
         <v>1</v>
       </c>
       <c r="Q42">
-        <v>4940</v>
+        <v>4281</v>
       </c>
     </row>
     <row r="43" spans="10:17">
       <c r="J43" s="1" t="s">
-        <v>23</v>
+        <v>60</v>
       </c>
       <c r="K43">
-        <v>0.006965405154399814</v>
+        <v>0.005218787635487756</v>
       </c>
       <c r="L43">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="M43">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="N43">
-        <v>0.59</v>
+        <v>0.65</v>
       </c>
       <c r="O43">
-        <v>0.41</v>
+        <v>0.35</v>
       </c>
       <c r="P43" t="b">
         <v>1</v>
       </c>
       <c r="Q43">
-        <v>4277</v>
-      </c>
-    </row>
-    <row r="44" spans="10:17">
-      <c r="J44" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="K44">
-        <v>0.004475578906402024</v>
-      </c>
-      <c r="L44">
-        <v>23</v>
-      </c>
-      <c r="M44">
-        <v>49</v>
-      </c>
-      <c r="N44">
-        <v>0.47</v>
-      </c>
-      <c r="O44">
-        <v>0.53</v>
-      </c>
-      <c r="P44" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q44">
-        <v>5116</v>
+        <v>4956</v>
       </c>
     </row>
   </sheetData>
